--- a/data/processed/state_overviews/hawaii_overview.xlsx
+++ b/data/processed/state_overviews/hawaii_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>630</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Hawaii County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>108</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Honolulu County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>365</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Kauai County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>40</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Maui County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>117</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,27 +594,61 @@
           <t>Kalawao County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>0</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>$1,081,113,515</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.92%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-17.37%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>70.00%</t>
         </is>
       </c>
     </row>
@@ -659,8 +703,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>298</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -689,8 +735,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B3">
-        <v>332</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -719,8 +767,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B4">
-        <v>630</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -794,8 +844,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>201</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -824,8 +876,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>175</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -854,8 +908,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>117</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -884,8 +940,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>42</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -914,8 +972,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>67</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -944,8 +1004,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>28</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -974,8 +1036,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>630</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1049,8 +1113,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>78</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1079,8 +1145,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>65</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1109,8 +1177,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>72</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1139,8 +1209,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>62</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1169,8 +1241,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>7</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1199,8 +1273,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>155</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1229,8 +1305,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>5</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1259,8 +1337,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>55</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1289,8 +1369,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B10">
-        <v>3</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1319,8 +1401,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B11">
-        <v>123</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1349,8 +1433,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B12">
-        <v>5</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1379,8 +1465,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B13">
-        <v>630</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/hawaii_overview.xlsx
+++ b/data/processed/state_overviews/hawaii_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -431,224 +431,224 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hawaii County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$93,231,648</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.89%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-16.25%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>73.15%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Honolulu County</t>
+          <t>Hawaii</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>630</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$874,969,518</t>
+          <t>$1,081,113,515</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.42%</t>
+          <t>8.92%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-19.14%</t>
+          <t>-17.37%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>71.78%</t>
+          <t>70.00%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kauai County</t>
+          <t>Hawaii County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>108</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$13,473,937</t>
+          <t>$93,231,648</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20.31%</t>
+          <t>6.89%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-0.86%</t>
+          <t>-16.25%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>52.50%</t>
+          <t>73.15%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Maui County</t>
+          <t>Honolulu County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>365</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$99,438,412</t>
+          <t>$874,969,518</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.26%</t>
+          <t>8.42%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-18.60%</t>
+          <t>-19.14%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>67.52%</t>
+          <t>71.78%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kalawao County</t>
+          <t>Kauai County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$13,473,937</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>20.31%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-0.86%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>52.50%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Maui County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>117</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$1,081,113,515</t>
+          <t>$99,438,412</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.92%</t>
+          <t>11.26%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-17.37%</t>
+          <t>-18.60%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>67.52%</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -668,128 +668,160 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$790,093,863</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.27%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-19.57%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>71.48%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>Hawaii</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>630</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$291,019,652</t>
+          <t>$1,081,113,515</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.73%</t>
+          <t>8.92%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-15.63%</t>
+          <t>-17.37%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>68.67%</t>
+          <t>70.00%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>298</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$1,081,113,515</t>
+          <t>$790,093,863</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.92%</t>
+          <t>8.27%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-17.37%</t>
+          <t>-19.57%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>71.48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2nd Congressional district</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$291,019,652</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.73%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-15.63%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>68.67%</t>
         </is>
       </c>
     </row>
@@ -814,34 +846,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -873,128 +905,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$171,732,848</t>
+          <t>$715,119,205</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.03%</t>
+          <t>5.73%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-19.27%</t>
+          <t>-7.62%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>72.00%</t>
+          <t>62.69%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>175</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$31,929,560</t>
+          <t>$171,732,848</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.80%</t>
+          <t>9.03%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-14.41%</t>
+          <t>-19.27%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>70.09%</t>
+          <t>72.00%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>117</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$132,115,397</t>
+          <t>$31,929,560</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.52%</t>
+          <t>8.80%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-28.85%</t>
+          <t>-14.41%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>69.05%</t>
+          <t>70.09%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$715,119,205</t>
+          <t>$132,115,397</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.73%</t>
+          <t>5.52%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-7.62%</t>
+          <t>-28.85%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>62.69%</t>
+          <t>69.05%</t>
         </is>
       </c>
     </row>
@@ -1083,34 +1115,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1142,7 +1174,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1174,7 +1206,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1206,7 +1238,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1270,7 +1302,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1302,7 +1334,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1334,7 +1366,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1366,7 +1398,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1398,64 +1430,64 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$225,701,680</t>
+          <t>$32,373,104</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.70%</t>
+          <t>8.81%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-26.44%</t>
+          <t>-10.69%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>80.49%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>123</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$32,373,104</t>
+          <t>$225,701,680</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.81%</t>
+          <t>5.70%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-10.69%</t>
+          <t>-26.44%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>80.49%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/hawaii_overview.xlsx
+++ b/data/processed/state_overviews/hawaii_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>70.00%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>630</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$1,081,113,515</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>8.92%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-17.37%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>70.00%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>70.00%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>630</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$1,081,113,515</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>8.92%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-17.37%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>70.00%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>73.15%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>108</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$93,231,648</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>6.89%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-16.25%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>73.15%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>71.78%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>365</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$874,969,518</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>8.42%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-19.14%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>71.78%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>52.50%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$13,473,937</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>20.31%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-0.86%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>52.50%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>67.52%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>117</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$99,438,412</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>11.26%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-18.60%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>67.52%</t>
         </is>
       </c>
     </row>
@@ -673,27 +673,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -705,27 +705,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -737,91 +737,91 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>70.00%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>630</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$1,081,113,515</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>8.92%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-17.37%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>70.00%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>71.48%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>298</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$790,093,863</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>8.27%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-19.57%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>71.48%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>68.67%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>332</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$291,019,652</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>9.73%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-15.63%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>68.67%</t>
         </is>
       </c>
     </row>
@@ -846,187 +846,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>70.15%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>201</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$24,503,478</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>11.95%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-18.22%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>70.15%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>72.00%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$715,119,205</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.73%</t>
+          <t>$171,732,848</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-7.62%</t>
+          <t>9.03%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>62.69%</t>
+          <t>-19.27%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>70.09%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$171,732,848</t>
+          <t>117</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.03%</t>
+          <t>$31,929,560</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-19.27%</t>
+          <t>8.80%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>72.00%</t>
+          <t>-14.41%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>69.05%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$31,929,560</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.80%</t>
+          <t>$132,115,397</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-14.41%</t>
+          <t>5.52%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>70.09%</t>
+          <t>-28.85%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>62.69%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$132,115,397</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.52%</t>
+          <t>$715,119,205</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-28.85%</t>
+          <t>5.73%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>69.05%</t>
+          <t>-7.62%</t>
         </is>
       </c>
     </row>
@@ -1038,27 +1038,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>28</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$5,713,027</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>17.69%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-24.27%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1070,27 +1070,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>70.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>630</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$1,081,113,515</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>8.92%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-17.37%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>70.00%</t>
         </is>
       </c>
     </row>
@@ -1115,155 +1115,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.95%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>78</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$52,913,318</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>10.85%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-16.11%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.95%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>70.77%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>65</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$34,850,435</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9.14%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-12.65%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>70.77%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>65.28%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>72</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$39,214,536</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>13.14%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-17.78%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>65.28%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>64.52%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>62</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$144,808,995</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>7.27%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-20.35%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>64.52%</t>
         </is>
       </c>
     </row>
@@ -1275,219 +1275,219 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>42.86%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$77,923,568</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>9.43%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>0.32%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>42.86%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>69.03%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>155</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$247,080,925</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>10.81%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-18.43%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>69.03%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$833,746</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>20.57%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-14.41%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>65.45%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>55</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$212,779,190</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>5.10%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-15.30%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>65.45%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$12,634,018</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>-3.97%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-30.02%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>80.49%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$32,373,104</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8.81%</t>
+          <t>$225,701,680</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-10.69%</t>
+          <t>5.70%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>-26.44%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>80.00%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$225,701,680</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.70%</t>
+          <t>$32,373,104</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-26.44%</t>
+          <t>8.81%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>80.49%</t>
+          <t>-10.69%</t>
         </is>
       </c>
     </row>
@@ -1499,27 +1499,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>70.00%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>630</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$1,081,113,515</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>8.92%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-17.37%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>70.00%</t>
         </is>
       </c>
     </row>
